--- a/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
+++ b/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:45:24+00:00</t>
+    <t>2022-11-11T08:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
+++ b/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:55:06+00:00</t>
+    <t>2022-11-12T10:12:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
+++ b/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T10:12:10+00:00</t>
+    <t>2022-11-12T10:32:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
+++ b/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T10:32:27+00:00</t>
+    <t>2022-11-13T06:36:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
+++ b/r5demo/1.0.0/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T06:36:10+00:00</t>
+    <t>2022-11-13T06:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
